--- a/en/application_framework/application_framework/handlers/images/HttpRequestJavaPackageMapping/images.xlsx
+++ b/en/application_framework/application_framework/handlers/images/HttpRequestJavaPackageMapping/images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303177\work\ssd\oss\nablarch-document\en\application_framework\application_framework\handlers\images\HttpRequestJavaPackageMapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD6767D-FD5E-4CF1-A174-2F1A8CDF357D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580"/>
+    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="web" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,6 +83,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -93,18 +102,24 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvPr id="19" name="角丸四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="800099" y="238125"/>
-          <a:ext cx="2924175" cy="2257425"/>
+          <a:ext cx="2924175" cy="2085975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -134,14 +149,7 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>HTTP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>リクエストディスパッチハンドラ</a:t>
+            <a:t>HTTP request dispatch handler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -156,20 +164,26 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvPr id="20" name="角丸四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1085850" y="685800"/>
-          <a:ext cx="2257425" cy="514350"/>
+          <a:ext cx="2333625" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -194,18 +208,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>リクエストの</a:t>
-          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -216,10 +218,13 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>URL</a:t>
+            <a:t>Request URL determines</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -228,22 +233,243 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>から対応する</a:t>
+            <a:t>the action method</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2252663" y="1200150"/>
+          <a:ext cx="0" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="角丸四角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286249" y="1590675"/>
+          <a:ext cx="1219201" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300" baseline="0">
+              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Action</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3419475" y="1795463"/>
+          <a:ext cx="866774" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="角丸四角形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="1543050"/>
+          <a:ext cx="2333625" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -252,303 +478,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>アクションのメソッドを決定</a:t>
+            <a:t>Call the action method </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="2"/>
-          <a:endCxn id="26" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2214563" y="1200150"/>
-          <a:ext cx="0" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000499" y="1457325"/>
-          <a:ext cx="1600200" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アクション</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="3"/>
-          <a:endCxn id="24" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3343275" y="1800225"/>
-          <a:ext cx="657224" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="角丸四角形 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1085850" y="1543050"/>
-          <a:ext cx="2257425" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>対応する</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>アクション</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>のメソッド</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>を</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>呼び出し</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -569,7 +500,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvPr id="8" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -619,7 +556,13 @@
     <xdr:ext cx="1875322" cy="447943"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -653,10 +596,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ベースパッケージ</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Base package</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -676,16 +618,22 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1088375" cy="447943"/>
+    <xdr:ext cx="867417" cy="436786"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1200150" y="4114800"/>
-          <a:ext cx="1088375" cy="447943"/>
+          <a:ext cx="867417" cy="436786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -713,10 +661,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>サブパッケージ</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Subpackage</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -735,16 +682,22 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1088375" cy="447943"/>
+    <xdr:ext cx="867417" cy="436786"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1200150" y="4791075"/>
-          <a:ext cx="1088375" cy="447943"/>
+          <a:ext cx="867417" cy="436786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -772,10 +725,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>サブパッケージ</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Subpackage</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -797,7 +749,13 @@
     <xdr:ext cx="1612236" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -849,7 +807,13 @@
     <xdr:ext cx="1613262" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -919,7 +883,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="角丸四角形 13"/>
+        <xdr:cNvPr id="14" name="角丸四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -975,7 +945,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="角丸四角形 14"/>
+        <xdr:cNvPr id="15" name="角丸四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1031,7 +1007,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -1072,16 +1054,22 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3031727" cy="275717"/>
+    <xdr:ext cx="3655809" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4088166" y="4324350"/>
-          <a:ext cx="3031727" cy="275717"/>
+          <a:ext cx="3655809" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1110,21 +1098,8 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>URL</a:t>
+            <a:t>Corresponds to the URL “/action/pkg1/ExampleAction1/xxx”</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> "</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>/action/pkg1/ExampleAction1/xxx" </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> と対応</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1137,16 +1112,22 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>78340</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2947025" cy="275717"/>
+    <xdr:ext cx="3695948" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4088166" y="5050390"/>
-          <a:ext cx="2947025" cy="275717"/>
+          <a:ext cx="3695948" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1175,29 +1156,8 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>URL</a:t>
+            <a:t>Corresponds to the URL “/action/pkg2/ExampleAction2/yyy” </a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> "</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>/action/pkg2/ExampleAction2/yyy"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> と対応</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1218,7 +1178,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1254,7 +1220,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1296,7 +1262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1329,9 +1295,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1364,6 +1347,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1539,11 +1539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK34" sqref="AK34:AK35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AI36" sqref="AI36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
